--- a/data/924/PPIN/Entrepreneur Confidence Index.xlsx
+++ b/data/924/PPIN/Entrepreneur Confidence Index.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PPI" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,374 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
-  <si>
-    <t>统计时间</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>总体</t>
-  </si>
-  <si>
-    <t>工业</t>
-  </si>
-  <si>
-    <t>建筑业</t>
-  </si>
-  <si>
-    <t>交通运输、仓储和邮政业</t>
-  </si>
-  <si>
-    <t>批发和零售业</t>
-  </si>
-  <si>
-    <t>房地产业</t>
-  </si>
-  <si>
-    <t>社会服务业</t>
-  </si>
-  <si>
-    <t>信息传输、计算机服务和软件业</t>
-  </si>
-  <si>
-    <t>住宿和餐饮业</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>100.80</t>
-  </si>
-  <si>
-    <t>103.60</t>
-  </si>
-  <si>
-    <t>112.30</t>
-  </si>
-  <si>
-    <t>106.10</t>
-  </si>
-  <si>
-    <t>127.10</t>
-  </si>
-  <si>
-    <t>106.60</t>
-  </si>
-  <si>
-    <t>98.50</t>
-  </si>
-  <si>
-    <t>101.40</t>
-  </si>
-  <si>
-    <t>106.50</t>
-  </si>
-  <si>
-    <t>101.30</t>
-  </si>
-  <si>
-    <t>126.40</t>
-  </si>
-  <si>
-    <t>101.70</t>
-  </si>
-  <si>
-    <t>98.40</t>
-  </si>
-  <si>
-    <t>101.80</t>
-  </si>
-  <si>
-    <t>107.00</t>
-  </si>
-  <si>
-    <t>100.60</t>
-  </si>
-  <si>
-    <t>113.80</t>
-  </si>
-  <si>
-    <t>127.50</t>
-  </si>
-  <si>
-    <t>99.10</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>113.30</t>
-  </si>
-  <si>
-    <t>119.30</t>
-  </si>
-  <si>
-    <t>108.70</t>
-  </si>
-  <si>
-    <t>112.80</t>
-  </si>
-  <si>
-    <t>137.30</t>
-  </si>
-  <si>
-    <t>76.60</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>109.60</t>
-  </si>
-  <si>
-    <t>120.40</t>
-  </si>
-  <si>
-    <t>115.60</t>
-  </si>
-  <si>
-    <t>113.50</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>90.10</t>
-  </si>
-  <si>
-    <t>125.20</t>
-  </si>
-  <si>
-    <t>108.40</t>
-  </si>
-  <si>
-    <t>114.90</t>
-  </si>
-  <si>
-    <t>110.70</t>
-  </si>
-  <si>
-    <t>119.50</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>130.90</t>
-  </si>
-  <si>
-    <t>111.70</t>
-  </si>
-  <si>
-    <t>121.40</t>
-  </si>
-  <si>
-    <t>108.80</t>
-  </si>
-  <si>
-    <t>125.40</t>
-  </si>
-  <si>
-    <t>142.70</t>
-  </si>
-  <si>
-    <t>81.20</t>
-  </si>
-  <si>
-    <t>120.60</t>
-  </si>
-  <si>
-    <t>115.10</t>
-  </si>
-  <si>
-    <t>126.10</t>
-  </si>
-  <si>
-    <t>109.20</t>
-  </si>
-  <si>
-    <t>123.50</t>
-  </si>
-  <si>
-    <t>146.20</t>
-  </si>
-  <si>
-    <t>121.10</t>
-  </si>
-  <si>
-    <t>117.40</t>
-  </si>
-  <si>
-    <t>110.60</t>
-  </si>
-  <si>
-    <t>98.10</t>
-  </si>
-  <si>
-    <t>122.80</t>
-  </si>
-  <si>
-    <t>141.80</t>
-  </si>
-  <si>
-    <t>114.20</t>
-  </si>
-  <si>
-    <t>120.70</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>131.50</t>
-  </si>
-  <si>
-    <t>147.90</t>
-  </si>
-  <si>
-    <t>125.80</t>
-  </si>
-  <si>
-    <t>125.62</t>
-  </si>
-  <si>
-    <t>118.01</t>
-  </si>
-  <si>
-    <t>133.02</t>
-  </si>
-  <si>
-    <t>86.46</t>
-  </si>
-  <si>
-    <t>138.36</t>
-  </si>
-  <si>
-    <t>155.60</t>
-  </si>
-  <si>
-    <t>129.96</t>
-  </si>
-  <si>
-    <t>127.20</t>
-  </si>
-  <si>
-    <t>121.90</t>
-  </si>
-  <si>
-    <t>135.80</t>
-  </si>
-  <si>
-    <t>81.50</t>
-  </si>
-  <si>
-    <t>131.70</t>
-  </si>
-  <si>
-    <t>158.30</t>
-  </si>
-  <si>
-    <t>134.00</t>
-  </si>
-  <si>
-    <t>154.60</t>
-  </si>
-  <si>
-    <t>131.30</t>
-  </si>
-  <si>
-    <t>149.70</t>
-  </si>
-  <si>
-    <t>126.90</t>
-  </si>
-  <si>
-    <t>155.80</t>
-  </si>
-  <si>
-    <t>127.80</t>
-  </si>
-  <si>
-    <t>151.30</t>
-  </si>
-  <si>
-    <t>125.70</t>
-  </si>
-  <si>
-    <t>154.25</t>
-  </si>
-  <si>
-    <t>124.73</t>
-  </si>
-  <si>
-    <t>153.67</t>
-  </si>
-  <si>
-    <t>124.20</t>
-  </si>
-  <si>
-    <t>155.04</t>
-  </si>
-  <si>
-    <t>126.48</t>
-  </si>
-  <si>
-    <t>153.48</t>
-  </si>
-  <si>
-    <t>124.84</t>
-  </si>
-  <si>
-    <t>152.70</t>
-  </si>
-  <si>
-    <t>124.03</t>
-  </si>
-  <si>
-    <t>153.71</t>
-  </si>
-  <si>
-    <t>126.93</t>
-  </si>
-  <si>
-    <t>156.72</t>
-  </si>
-  <si>
-    <t>124.21</t>
-  </si>
-  <si>
-    <t>149.63</t>
-  </si>
-  <si>
-    <t>124.69</t>
-  </si>
-  <si>
-    <t>143.84</t>
-  </si>
-  <si>
-    <t>122.46</t>
-  </si>
-  <si>
-    <t>128.38</t>
-  </si>
-  <si>
-    <t>43.85</t>
-  </si>
-  <si>
-    <t>147.76</t>
-  </si>
-  <si>
-    <t>123.24</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,42 +366,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>统计时间</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>序号</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>总体</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>工业</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>交通运输、仓储和邮政业</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>批发和零售业</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>房地产业</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>社会服务业</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>信息传输、计算机服务和软件业</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>住宿和餐饮业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>2021.3</v>
       </c>
@@ -794,8 +448,10 @@
       <c r="H2" t="n">
         <v>116.3</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J2" t="n">
         <v>135</v>
@@ -804,7 +460,7 @@
         <v>112.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>2021.2</v>
       </c>
@@ -829,8 +485,10 @@
       <c r="H3" t="n">
         <v>122.9</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J3" t="n">
         <v>136.5</v>
@@ -839,7 +497,7 @@
         <v>125.9</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2021.1</v>
       </c>
@@ -864,8 +522,10 @@
       <c r="H4" t="n">
         <v>124.1</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J4" t="n">
         <v>138</v>
@@ -874,7 +534,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>2020.4</v>
       </c>
@@ -899,8 +559,10 @@
       <c r="H5" t="n">
         <v>119.92</v>
       </c>
-      <c r="I5" t="s">
-        <v>11</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J5" t="n">
         <v>127.62</v>
@@ -909,7 +571,7 @@
         <v>95.38</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>2020.3</v>
       </c>
@@ -934,8 +596,10 @@
       <c r="H6" t="n">
         <v>117.44</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J6" t="n">
         <v>124.38</v>
@@ -944,7 +608,7 @@
         <v>113.68</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>2020.2</v>
       </c>
@@ -969,8 +633,10 @@
       <c r="H7" t="n">
         <v>113.42</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J7" t="n">
         <v>114.32</v>
@@ -979,7 +645,7 @@
         <v>74.98</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>2020.1</v>
       </c>
@@ -1004,8 +670,10 @@
       <c r="H8" t="n">
         <v>101.4</v>
       </c>
-      <c r="I8" t="s">
-        <v>11</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J8" t="n">
         <v>99.09999999999999</v>
@@ -1014,7 +682,7 @@
         <v>44.28</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>2019.4</v>
       </c>
@@ -1039,8 +707,10 @@
       <c r="H9" t="n">
         <v>122.3</v>
       </c>
-      <c r="I9" t="s">
-        <v>11</v>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J9" t="n">
         <v>129.6</v>
@@ -1049,7 +719,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>2019.3</v>
       </c>
@@ -1074,8 +744,10 @@
       <c r="H10" t="n">
         <v>122.1</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J10" t="n">
         <v>130.9</v>
@@ -1084,7 +756,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>2019.2</v>
       </c>
@@ -1109,8 +781,10 @@
       <c r="H11" t="n">
         <v>122.9</v>
       </c>
-      <c r="I11" t="s">
-        <v>11</v>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J11" t="n">
         <v>132.2</v>
@@ -1119,7 +793,7 @@
         <v>117.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>2019.1</v>
       </c>
@@ -1144,8 +818,10 @@
       <c r="H12" t="n">
         <v>123.1</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J12" t="n">
         <v>135</v>
@@ -1154,7 +830,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>2018.4</v>
       </c>
@@ -1179,8 +855,10 @@
       <c r="H13" t="n">
         <v>118.9</v>
       </c>
-      <c r="I13" t="s">
-        <v>11</v>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J13" t="n">
         <v>133.4</v>
@@ -1189,7 +867,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>2018.3</v>
       </c>
@@ -1214,8 +892,10 @@
       <c r="H14" t="n">
         <v>118.9</v>
       </c>
-      <c r="I14" t="s">
-        <v>11</v>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J14" t="n">
         <v>134.2</v>
@@ -1224,7 +904,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>2018.2</v>
       </c>
@@ -1249,8 +929,10 @@
       <c r="H15" t="n">
         <v>121.9</v>
       </c>
-      <c r="I15" t="s">
-        <v>11</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J15" t="n">
         <v>137.7</v>
@@ -1259,7 +941,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>2018.1</v>
       </c>
@@ -1284,8 +966,10 @@
       <c r="H16" t="n">
         <v>121.8</v>
       </c>
-      <c r="I16" t="s">
-        <v>11</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J16" t="n">
         <v>140.3</v>
@@ -1294,7 +978,7 @@
         <v>118.3</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>2017.4</v>
       </c>
@@ -1319,8 +1003,10 @@
       <c r="H17" t="n">
         <v>119.4</v>
       </c>
-      <c r="I17" t="s">
-        <v>11</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J17" t="n">
         <v>137.6</v>
@@ -1329,7 +1015,7 @@
         <v>116.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>2017.3</v>
       </c>
@@ -1354,8 +1040,10 @@
       <c r="H18" t="n">
         <v>117.9</v>
       </c>
-      <c r="I18" t="s">
-        <v>11</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J18" t="n">
         <v>136.2</v>
@@ -1364,7 +1052,7 @@
         <v>117.8</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>2017.2</v>
       </c>
@@ -1389,8 +1077,10 @@
       <c r="H19" t="n">
         <v>114.6</v>
       </c>
-      <c r="I19" t="s">
-        <v>11</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J19" t="n">
         <v>135.1</v>
@@ -1399,7 +1089,7 @@
         <v>119.6</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>2017.1</v>
       </c>
@@ -1424,8 +1114,10 @@
       <c r="H20" t="n">
         <v>113.8</v>
       </c>
-      <c r="I20" t="s">
-        <v>11</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J20" t="n">
         <v>135.7</v>
@@ -1434,7 +1126,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>2016.4</v>
       </c>
@@ -1459,8 +1151,10 @@
       <c r="H21" t="n">
         <v>105.7</v>
       </c>
-      <c r="I21" t="s">
-        <v>11</v>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J21" t="n">
         <v>130.8</v>
@@ -1469,7 +1163,7 @@
         <v>106.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>2016.3</v>
       </c>
@@ -1482,29 +1176,43 @@
       <c r="D22" t="n">
         <v>113.4</v>
       </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>100.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>103.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>112.30</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>106.10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>127.10</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>106.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>2016.2</v>
       </c>
@@ -1517,29 +1225,43 @@
       <c r="D23" t="n">
         <v>109.3</v>
       </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>106.50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>101.30</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>126.40</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>101.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>2016.1</v>
       </c>
@@ -1552,29 +1274,43 @@
       <c r="D24" t="n">
         <v>108.7</v>
       </c>
-      <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>101.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>113.80</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>127.50</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>2015.4</v>
       </c>
@@ -1587,29 +1323,43 @@
       <c r="D25" t="n">
         <v>108.9</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>2015.3</v>
       </c>
@@ -1622,29 +1372,43 @@
       <c r="D26" t="n">
         <v>112.1</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>2015.2</v>
       </c>
@@ -1657,29 +1421,43 @@
       <c r="D27" t="n">
         <v>114.5</v>
       </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>2015.1</v>
       </c>
@@ -1692,29 +1470,43 @@
       <c r="D28" t="n">
         <v>120.6</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>2014.4</v>
       </c>
@@ -1727,29 +1519,43 @@
       <c r="D29" t="n">
         <v>115.1</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>2014.3</v>
       </c>
@@ -1762,29 +1568,43 @@
       <c r="D30" t="n">
         <v>119</v>
       </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>2014.2</v>
       </c>
@@ -1797,29 +1617,43 @@
       <c r="D31" t="n">
         <v>121.4</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>2014.1</v>
       </c>
@@ -1832,29 +1666,43 @@
       <c r="D32" t="n">
         <v>124.3</v>
       </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>2013.4</v>
       </c>
@@ -1867,29 +1715,43 @@
       <c r="D33" t="n">
         <v>121</v>
       </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>118.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>113.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>119.30</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>108.70</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>112.80</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>137.30</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>2013.3</v>
       </c>
@@ -1902,29 +1764,43 @@
       <c r="D34" t="n">
         <v>122.7</v>
       </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>124.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>109.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120.40</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>115.60</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>113.50</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>140.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>2013.2</v>
       </c>
@@ -1937,29 +1813,43 @@
       <c r="D35" t="n">
         <v>119.4</v>
       </c>
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>125.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>108.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>114.90</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>110.70</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>119.50</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>138.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>2013.1</v>
       </c>
@@ -1972,29 +1862,43 @@
       <c r="D36" t="n">
         <v>127.2</v>
       </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>130.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>121.40</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>108.80</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>125.40</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>142.70</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>2012.4</v>
       </c>
@@ -2007,29 +1911,43 @@
       <c r="D37" t="n">
         <v>118.2</v>
       </c>
-      <c r="E37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" t="s">
-        <v>63</v>
-      </c>
-      <c r="J37" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>120.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>115.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>126.10</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>109.20</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>123.50</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>146.20</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>121.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>2012.3</v>
       </c>
@@ -2042,29 +1960,43 @@
       <c r="D38" t="n">
         <v>115.1</v>
       </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
-      </c>
-      <c r="I38" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>117.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>110.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>120.60</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>122.80</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>141.80</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>125.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>2012.2</v>
       </c>
@@ -2077,29 +2009,43 @@
       <c r="D39" t="n">
         <v>121.5</v>
       </c>
-      <c r="E39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>124.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>114.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>120.70</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>131.50</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>147.90</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>125.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>2012.1</v>
       </c>
@@ -2112,29 +2058,43 @@
       <c r="D40" t="n">
         <v>120.53</v>
       </c>
-      <c r="E40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I40" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>125.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>118.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>138.36</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>155.60</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>129.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>2011.4</v>
       </c>
@@ -2147,29 +2107,43 @@
       <c r="D41" t="n">
         <v>117.8</v>
       </c>
-      <c r="E41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" t="s">
-        <v>89</v>
-      </c>
-      <c r="K41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>127.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>121.90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>135.80</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>131.70</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>158.30</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>134.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>2011.3</v>
       </c>
@@ -2204,7 +2178,7 @@
         <v>139.5</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>2011.2</v>
       </c>
@@ -2239,7 +2213,7 @@
         <v>135.3</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>2011.1</v>
       </c>
@@ -2274,7 +2248,7 @@
         <v>131.3</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>2010.4</v>
       </c>
@@ -2309,7 +2283,7 @@
         <v>131.8</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>2010.3</v>
       </c>
@@ -2344,7 +2318,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>2010.2</v>
       </c>
@@ -2379,7 +2353,7 @@
         <v>131.8</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>2010.1</v>
       </c>
@@ -2414,7 +2388,7 @@
         <v>127.8</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>2009.4</v>
       </c>
@@ -2449,7 +2423,7 @@
         <v>121.3</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>2009.3</v>
       </c>
@@ -2484,7 +2458,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>2009.2</v>
       </c>
@@ -2519,7 +2493,7 @@
         <v>100.6</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>2009.1</v>
       </c>
@@ -2554,7 +2528,7 @@
         <v>95.40000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53">
       <c r="A53" s="1" t="n">
         <v>2008.4</v>
       </c>
@@ -2589,7 +2563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54">
       <c r="A54" s="1" t="n">
         <v>2008.3</v>
       </c>
@@ -2624,7 +2598,7 @@
         <v>122.3</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55">
       <c r="A55" s="1" t="n">
         <v>2008.2</v>
       </c>
@@ -2659,7 +2633,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56">
       <c r="A56" s="1" t="n">
         <v>2008.1</v>
       </c>
@@ -2694,7 +2668,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57">
       <c r="A57" s="1" t="n">
         <v>2007.4</v>
       </c>
@@ -2729,7 +2703,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58">
       <c r="A58" s="1" t="n">
         <v>2007.3</v>
       </c>
@@ -2764,7 +2738,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59">
       <c r="A59" s="1" t="n">
         <v>2007.2</v>
       </c>
@@ -2799,7 +2773,7 @@
         <v>135.4</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60">
       <c r="A60" s="1" t="n">
         <v>2007.1</v>
       </c>
@@ -2834,7 +2808,7 @@
         <v>131.7</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61">
       <c r="A61" s="1" t="n">
         <v>2006.4</v>
       </c>
@@ -2869,7 +2843,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62">
       <c r="A62" s="1" t="n">
         <v>2006.3</v>
       </c>
@@ -2897,14 +2871,18 @@
       <c r="I62" t="n">
         <v>135.3</v>
       </c>
-      <c r="J62" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>154.60</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>131.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1" t="n">
         <v>2006.2</v>
       </c>
@@ -2932,14 +2910,18 @@
       <c r="I63" t="n">
         <v>135.3</v>
       </c>
-      <c r="J63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>149.70</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>126.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1" t="n">
         <v>2006.1</v>
       </c>
@@ -2967,14 +2949,18 @@
       <c r="I64" t="n">
         <v>133.9</v>
       </c>
-      <c r="J64" t="s">
-        <v>95</v>
-      </c>
-      <c r="K64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>155.80</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>127.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1" t="n">
         <v>2005.4</v>
       </c>
@@ -3002,14 +2988,18 @@
       <c r="I65" t="n">
         <v>127.7</v>
       </c>
-      <c r="J65" t="s">
-        <v>97</v>
-      </c>
-      <c r="K65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>151.30</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>125.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1" t="n">
         <v>2005.3</v>
       </c>
@@ -3037,14 +3027,18 @@
       <c r="I66" t="n">
         <v>132.55</v>
       </c>
-      <c r="J66" t="s">
-        <v>99</v>
-      </c>
-      <c r="K66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>154.25</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>124.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1" t="n">
         <v>2005.2</v>
       </c>
@@ -3072,14 +3066,18 @@
       <c r="I67" t="n">
         <v>129.83</v>
       </c>
-      <c r="J67" t="s">
-        <v>101</v>
-      </c>
-      <c r="K67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>153.67</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>124.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1" t="n">
         <v>2005.1</v>
       </c>
@@ -3107,14 +3105,18 @@
       <c r="I68" t="n">
         <v>132.41</v>
       </c>
-      <c r="J68" t="s">
-        <v>103</v>
-      </c>
-      <c r="K68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>155.04</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>126.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1" t="n">
         <v>2004.4</v>
       </c>
@@ -3142,14 +3144,18 @@
       <c r="I69" t="n">
         <v>125.14</v>
       </c>
-      <c r="J69" t="s">
-        <v>105</v>
-      </c>
-      <c r="K69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>153.48</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>124.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1" t="n">
         <v>2004.3</v>
       </c>
@@ -3177,14 +3183,18 @@
       <c r="I70" t="n">
         <v>129.55</v>
       </c>
-      <c r="J70" t="s">
-        <v>107</v>
-      </c>
-      <c r="K70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>152.70</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>124.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1" t="n">
         <v>2004.2</v>
       </c>
@@ -3212,14 +3222,18 @@
       <c r="I71" t="n">
         <v>128.73</v>
       </c>
-      <c r="J71" t="s">
-        <v>109</v>
-      </c>
-      <c r="K71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>153.71</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>126.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1" t="n">
         <v>2004.1</v>
       </c>
@@ -3247,14 +3261,18 @@
       <c r="I72" t="n">
         <v>126.52</v>
       </c>
-      <c r="J72" t="s">
-        <v>111</v>
-      </c>
-      <c r="K72" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>156.72</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>124.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="1" t="n">
         <v>2003.4</v>
       </c>
@@ -3282,14 +3300,18 @@
       <c r="I73" t="n">
         <v>119.29</v>
       </c>
-      <c r="J73" t="s">
-        <v>113</v>
-      </c>
-      <c r="K73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>149.63</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>124.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="1" t="n">
         <v>2003.3</v>
       </c>
@@ -3317,14 +3339,18 @@
       <c r="I74" t="n">
         <v>118.76</v>
       </c>
-      <c r="J74" t="s">
-        <v>115</v>
-      </c>
-      <c r="K74" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>143.84</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>122.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="1" t="n">
         <v>2003.2</v>
       </c>
@@ -3352,14 +3378,18 @@
       <c r="I75" t="n">
         <v>75.61</v>
       </c>
-      <c r="J75" t="s">
-        <v>117</v>
-      </c>
-      <c r="K75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>128.38</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>43.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="1" t="n">
         <v>2003.1</v>
       </c>
@@ -3387,14 +3417,18 @@
       <c r="I76" t="n">
         <v>130.28</v>
       </c>
-      <c r="J76" t="s">
-        <v>119</v>
-      </c>
-      <c r="K76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>147.76</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>123.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="1" t="n">
         <v>2002.4</v>
       </c>
@@ -3422,14 +3456,18 @@
       <c r="I77" t="n">
         <v>121.16</v>
       </c>
-      <c r="J77" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" s="1" t="n">
         <v>2002.3</v>
       </c>
@@ -3457,14 +3495,18 @@
       <c r="I78" t="n">
         <v>121.33</v>
       </c>
-      <c r="J78" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" s="1" t="n">
         <v>2002.2</v>
       </c>
@@ -3492,14 +3534,18 @@
       <c r="I79" t="n">
         <v>119.46</v>
       </c>
-      <c r="J79" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" s="1" t="n">
         <v>2002.1</v>
       </c>
@@ -3527,14 +3573,18 @@
       <c r="I80" t="n">
         <v>119.88</v>
       </c>
-      <c r="J80" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" s="1" t="n">
         <v>2001.4</v>
       </c>
@@ -3562,14 +3612,18 @@
       <c r="I81" t="n">
         <v>115.92</v>
       </c>
-      <c r="J81" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" s="1" t="n">
         <v>2001.3</v>
       </c>
@@ -3597,14 +3651,18 @@
       <c r="I82" t="n">
         <v>121.74</v>
       </c>
-      <c r="J82" t="s">
-        <v>11</v>
-      </c>
-      <c r="K82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="1" t="n">
         <v>2001.2</v>
       </c>
@@ -3632,14 +3690,18 @@
       <c r="I83" t="n">
         <v>123.32</v>
       </c>
-      <c r="J83" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="1" t="n">
         <v>2001.1</v>
       </c>
@@ -3667,14 +3729,18 @@
       <c r="I84" t="n">
         <v>119.76</v>
       </c>
-      <c r="J84" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" s="1" t="n">
         <v>2000.4</v>
       </c>
@@ -3702,14 +3768,18 @@
       <c r="I85" t="n">
         <v>113.3</v>
       </c>
-      <c r="J85" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="1" t="n">
         <v>2000.3</v>
       </c>
@@ -3737,14 +3807,18 @@
       <c r="I86" t="n">
         <v>112.2</v>
       </c>
-      <c r="J86" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="1" t="n">
         <v>2000.2</v>
       </c>
@@ -3772,14 +3846,18 @@
       <c r="I87" t="n">
         <v>116.3</v>
       </c>
-      <c r="J87" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="1" t="n">
         <v>2000.1</v>
       </c>
@@ -3807,14 +3885,18 @@
       <c r="I88" t="n">
         <v>107.9</v>
       </c>
-      <c r="J88" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="1" t="n">
         <v>1999.4</v>
       </c>
@@ -3842,14 +3924,18 @@
       <c r="I89" t="n">
         <v>96.5</v>
       </c>
-      <c r="J89" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="1" t="n">
         <v>1999.3</v>
       </c>
@@ -3877,14 +3963,18 @@
       <c r="I90" t="n">
         <v>93.8</v>
       </c>
-      <c r="J90" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="1" t="n">
         <v>1999.2</v>
       </c>
@@ -3912,14 +4002,18 @@
       <c r="I91" t="n">
         <v>89.8</v>
       </c>
-      <c r="J91" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="1" t="n">
         <v>1999.1</v>
       </c>
@@ -3947,11 +4041,15 @@
       <c r="I92" t="n">
         <v>95.7</v>
       </c>
-      <c r="J92" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" t="s">
-        <v>11</v>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
